--- a/Exemple_CDA-Correction_Position_Elements/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/Exemple_CDA-Correction_Position_Elements/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T07:59:30+00:00</t>
+    <t>2024-10-21T10:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
